--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6311E8-A56A-44F1-94A9-091E002CD147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA5F8A-A1B2-4D09-ABFC-4E2CBC2FDECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DATE</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>SERMON TOPIC</t>
+  </si>
+  <si>
+    <t>Be Thou My Vision, Tsis Muaj Koj Pab (#148), You Raise Me Up, 10,000 Reasons</t>
+  </si>
+  <si>
+    <t>40th Year Anniversary</t>
   </si>
 </sst>
 </file>
@@ -151,32 +157,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -248,6 +236,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -255,18 +252,27 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -283,12 +289,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
-  <autoFilter ref="A1:C2" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C3" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{55D9B211-FCF9-4127-A436-0642CD53EBF6}" name="DATE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5A7FE5DE-A428-470D-A711-7030CB95034C}" name="SONGS" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{966369BC-164D-4870-83F6-9891201666A0}" name="SERMON TOPIC" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{55D9B211-FCF9-4127-A436-0642CD53EBF6}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5A7FE5DE-A428-470D-A711-7030CB95034C}" name="SONGS" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{966369BC-164D-4870-83F6-9891201666A0}" name="SERMON TOPIC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,17 +563,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -583,9 +589,22 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
+      <c r="A2" s="7">
+        <v>45928</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>45934</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FA5F8A-A1B2-4D09-ABFC-4E2CBC2FDECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF7E45-70E0-4126-850D-75D9B1A950F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>DATE</t>
   </si>
@@ -36,10 +36,19 @@
     <t>SERMON TOPIC</t>
   </si>
   <si>
-    <t>Be Thou My Vision, Tsis Muaj Koj Pab (#148), You Raise Me Up, 10,000 Reasons</t>
-  </si>
-  <si>
     <t>40th Year Anniversary</t>
+  </si>
+  <si>
+    <t>Tsis Muaj Koj Pab (#148)</t>
+  </si>
+  <si>
+    <t>You Raise Me Up</t>
+  </si>
+  <si>
+    <t>10,000 Reasons</t>
+  </si>
+  <si>
+    <t>Be Thou My Vision</t>
   </si>
 </sst>
 </file>
@@ -151,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -160,6 +169,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -289,8 +299,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C3" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{55D9B211-FCF9-4127-A436-0642CD53EBF6}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{5A7FE5DE-A428-470D-A711-7030CB95034C}" name="SONGS" dataDxfId="1"/>
@@ -563,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +610,37 @@
         <v>45934</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89AF7E45-70E0-4126-850D-75D9B1A950F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57CA96-80B4-4207-812D-093B73A80329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>SONGS</t>
-  </si>
-  <si>
-    <t>SERMON TOPIC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -49,16 +40,53 @@
   </si>
   <si>
     <t>Be Thou My Vision</t>
+  </si>
+  <si>
+    <t>HFBC Hymnal Book</t>
+  </si>
+  <si>
+    <t>Written by Matt Redman and Jonas  in 2011</t>
+  </si>
+  <si>
+    <t>Composed by Rolf Løvland (music) and written by Brendan Graham (lyrics) in 2002. Popularized by Josh Groban in 2023</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Original text attributed to Dallán Forgaill (6th-century Irish poet). English translation by Mary Elizabeth Byrne (1905) and versification by Eleanor Hull (1912)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,70 +106,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -156,6 +125,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -163,19 +150,93 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -196,6 +257,22 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -206,9 +283,7 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -218,6 +293,58 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -226,9 +353,7 @@
       </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -239,13 +364,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -258,31 +376,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -299,14 +392,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C6" xr:uid="{3DD38BAE-16AA-4323-84A4-8CCD8223909C}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{55D9B211-FCF9-4127-A436-0642CD53EBF6}" name="DATE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5A7FE5DE-A428-470D-A711-7030CB95034C}" name="SONGS" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{966369BC-164D-4870-83F6-9891201666A0}" name="SERMON TOPIC" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
+  <autoFilter ref="A1:D6" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+    <sortCondition ref="A1:A6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{124D1CEA-7233-4FD6-B73A-5A67C2A9743C}" name="Credit" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Event" dataDxfId="2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -573,74 +670,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45928</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45934</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45928</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45934</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C57CA96-80B4-4207-812D-093B73A80329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660EE184-8617-437B-AB13-2AC2A102A12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,10 +60,10 @@
     <t>Credit</t>
   </si>
   <si>
-    <t>Event</t>
-  </si>
-  <si>
     <t>Original text attributed to Dallán Forgaill (6th-century Irish poet). English translation by Mary Elizabeth Byrne (1905) and versification by Eleanor Hull (1912)</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -147,79 +147,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -378,6 +319,64 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -392,16 +391,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D6" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
     <sortCondition ref="A1:A6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{124D1CEA-7233-4FD6-B73A-5A67C2A9743C}" name="Credit" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Event" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{124D1CEA-7233-4FD6-B73A-5A67C2A9743C}" name="Credit" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -673,7 +672,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,21 +685,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>11</v>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>45928</v>
       </c>
       <c r="B2" s="2"/>
@@ -708,21 +707,21 @@
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>45934</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +733,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +745,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660EE184-8617-437B-AB13-2AC2A102A12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EDA3E-1296-48B9-A632-2798E3FA048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>40th Year Anniversary</t>
   </si>
   <si>
-    <t>Tsis Muaj Koj Pab (#148)</t>
-  </si>
-  <si>
     <t>You Raise Me Up</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Koj Tsis Pab, Kuv Ua Tsis Tau Dabtsi [Without Him] (#148)</t>
   </si>
 </sst>
 </file>
@@ -672,30 +672,30 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -711,10 +711,10 @@
         <v>45934</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
@@ -723,10 +723,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
@@ -735,10 +735,10 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
@@ -747,10 +747,10 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>0</v>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5EDA3E-1296-48B9-A632-2798E3FA048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B97C0-AF62-4ADD-90C5-16549B8D1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -42,12 +42,6 @@
     <t>HFBC Hymnal Book</t>
   </si>
   <si>
-    <t>Written by Matt Redman and Jonas  in 2011</t>
-  </si>
-  <si>
-    <t>Composed by Rolf Løvland (music) and written by Brendan Graham (lyrics) in 2002. Popularized by Josh Groban in 2023</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -55,9 +49,6 @@
   </si>
   <si>
     <t>Credit</t>
-  </si>
-  <si>
-    <t>Original text attributed to Dallán Forgaill (6th-century Irish poet). English translation by Mary Elizabeth Byrne (1905) and versification by Eleanor Hull (1912)</t>
   </si>
   <si>
     <t>Topic</t>
@@ -672,30 +663,30 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,9 +704,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +712,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -737,9 +726,7 @@
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,9 +736,7 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
         <v>0</v>
       </c>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B97C0-AF62-4ADD-90C5-16549B8D1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221A765-2B59-4095-8CDC-D5009AA72604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -39,16 +39,10 @@
     <t>Be Thou My Vision</t>
   </si>
   <si>
-    <t>HFBC Hymnal Book</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Song</t>
-  </si>
-  <si>
-    <t>Credit</t>
   </si>
   <si>
     <t>Topic</t>
@@ -138,11 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -151,43 +144,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -382,15 +339,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D6" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C6" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
     <sortCondition ref="A1:A6"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{124D1CEA-7233-4FD6-B73A-5A67C2A9743C}" name="Credit" dataDxfId="1"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -660,84 +616,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>45928</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>45934</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A221A765-2B59-4095-8CDC-D5009AA72604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA5C00-0CB1-4A21-A935-A1998B9E42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,12 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -339,10 +338,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C6" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C6" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
-    <sortCondition ref="A1:A6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
+    <sortCondition ref="A1:A5"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="2"/>
@@ -616,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,58 +630,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45928</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+        <v>45934</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45934</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3">
+        <v>45934</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3">
+        <v>45934</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAA5C00-0CB1-4A21-A935-A1998B9E42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A442D40F-C0BE-4138-935C-F6D6D088A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Koj Tsis Pab, Kuv Ua Tsis Tau Dabtsi [Without Him] (#148)</t>
+  </si>
+  <si>
+    <t>Sunday Worship</t>
   </si>
 </sst>
 </file>
@@ -338,10 +341,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C5" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C5">
-    <sortCondition ref="A1:A5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C8" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A1:A8"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="2"/>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,35 +645,29 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45934</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+        <v>45928</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45934</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>45928</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45934</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>45928</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,9 +675,42 @@
         <v>45934</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A442D40F-C0BE-4138-935C-F6D6D088A42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B6D644-00B2-4C6E-9391-3704368FDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Sunday Worship</t>
+  </si>
+  <si>
+    <t>Kuv Muab Siab Npuab Yexus [My Jesus, I Love Thee] (#23)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,9 @@
       <c r="A2" s="3">
         <v>45928</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
@@ -665,7 +670,9 @@
       <c r="A4" s="3">
         <v>45928</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B6D644-00B2-4C6E-9391-3704368FDFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C42D7A-526A-4E8A-9D8D-C235FFA08FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Kuv Muab Siab Npuab Yexus [My Jesus, I Love Thee] (#23)</t>
+  </si>
+  <si>
+    <t>I Have Decided to Follow Jesus [Kuv Twv Xais Tag Lawm] (#95)</t>
   </si>
 </sst>
 </file>
@@ -624,13 +627,13 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -661,7 +664,9 @@
       <c r="A3" s="3">
         <v>45928</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C42D7A-526A-4E8A-9D8D-C235FFA08FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A18974-A23C-42C1-9691-94A06ABFA1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="115">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -51,13 +51,325 @@
     <t>Koj Tsis Pab, Kuv Ua Tsis Tau Dabtsi [Without Him] (#148)</t>
   </si>
   <si>
-    <t>Sunday Worship</t>
-  </si>
-  <si>
-    <t>Kuv Muab Siab Npuab Yexus [My Jesus, I Love Thee] (#23)</t>
-  </si>
-  <si>
-    <t>I Have Decided to Follow Jesus [Kuv Twv Xais Tag Lawm] (#95)</t>
+    <t>Faithfulness</t>
+  </si>
+  <si>
+    <t>#270 - Hnub No Peb Sawvdaws Tuaj Ua Kev Zoo Siab</t>
+  </si>
+  <si>
+    <t>#195 - Kuv Twv Xais Tag Lawm</t>
+  </si>
+  <si>
+    <t>#23 - Kuv Muab Siab Npuab Yexus</t>
+  </si>
+  <si>
+    <t>#152 - Yexus Coj Kuv Mus Kev Tshav Ntuj</t>
+  </si>
+  <si>
+    <t>#154 - Cov Ntseeg Yexus Yog Ib Tsevneeg</t>
+  </si>
+  <si>
+    <t>God as our Creator</t>
+  </si>
+  <si>
+    <t>God is Good (He is the good Shepherd)</t>
+  </si>
+  <si>
+    <t>God is Love</t>
+  </si>
+  <si>
+    <t>God is our salvation</t>
+  </si>
+  <si>
+    <t>#240</t>
+  </si>
+  <si>
+    <t>#213</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#82</t>
+  </si>
+  <si>
+    <t>#29</t>
+  </si>
+  <si>
+    <t>Holiness and Sin</t>
+  </si>
+  <si>
+    <t>Death was the price</t>
+  </si>
+  <si>
+    <t>#283</t>
+  </si>
+  <si>
+    <t>#91</t>
+  </si>
+  <si>
+    <t>#348</t>
+  </si>
+  <si>
+    <t>#78</t>
+  </si>
+  <si>
+    <t>#162</t>
+  </si>
+  <si>
+    <t>The beauty of the bride: LOVE</t>
+  </si>
+  <si>
+    <t>Life is incomprehensible in a sinful world</t>
+  </si>
+  <si>
+    <t>All the Same</t>
+  </si>
+  <si>
+    <t>The tongue is a fire</t>
+  </si>
+  <si>
+    <t>#60</t>
+  </si>
+  <si>
+    <t>#77</t>
+  </si>
+  <si>
+    <t>#30</t>
+  </si>
+  <si>
+    <t>#161</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#28</t>
+  </si>
+  <si>
+    <t>#99</t>
+  </si>
+  <si>
+    <t>#32</t>
+  </si>
+  <si>
+    <t>Holiness is demand by the Lord in the church</t>
+  </si>
+  <si>
+    <t>#90</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t>#23</t>
+  </si>
+  <si>
+    <t>#11</t>
+  </si>
+  <si>
+    <t>Seng Led Worship (Unknown Topic)</t>
+  </si>
+  <si>
+    <t>Guest Speaker Week (Unknown Topic)</t>
+  </si>
+  <si>
+    <t>#97</t>
+  </si>
+  <si>
+    <t>#134</t>
+  </si>
+  <si>
+    <t>#31</t>
+  </si>
+  <si>
+    <t>Repentance is God’s desires</t>
+  </si>
+  <si>
+    <t>The power of unity</t>
+  </si>
+  <si>
+    <t>#89</t>
+  </si>
+  <si>
+    <t>#219</t>
+  </si>
+  <si>
+    <t>#62</t>
+  </si>
+  <si>
+    <t>#241</t>
+  </si>
+  <si>
+    <t>#224</t>
+  </si>
+  <si>
+    <t>Easter Sunday</t>
+  </si>
+  <si>
+    <t>#59</t>
+  </si>
+  <si>
+    <t>#115</t>
+  </si>
+  <si>
+    <t>#112</t>
+  </si>
+  <si>
+    <t>#131</t>
+  </si>
+  <si>
+    <t>#56</t>
+  </si>
+  <si>
+    <t>A woman worthy of praise</t>
+  </si>
+  <si>
+    <t>#74</t>
+  </si>
+  <si>
+    <t>#180</t>
+  </si>
+  <si>
+    <t>#183</t>
+  </si>
+  <si>
+    <t>#179</t>
+  </si>
+  <si>
+    <t>The church: “Bride of Christ”</t>
+  </si>
+  <si>
+    <t>#10</t>
+  </si>
+  <si>
+    <t>#208</t>
+  </si>
+  <si>
+    <t>Amazing Grace</t>
+  </si>
+  <si>
+    <t>Blessed Assurance</t>
+  </si>
+  <si>
+    <t>All Creatures of Our God and King</t>
+  </si>
+  <si>
+    <t>Youth Lead (English Service)</t>
+  </si>
+  <si>
+    <t>#171 - Kuv Taug Txojkev Mus Saum Ceebtsheej</t>
+  </si>
+  <si>
+    <t>#57 - Kuv Tus Kwvluag</t>
+  </si>
+  <si>
+    <t>the temple/house of God</t>
+  </si>
+  <si>
+    <t>The Church</t>
+  </si>
+  <si>
+    <t>Tne Church</t>
+  </si>
+  <si>
+    <t>Tlu Church</t>
+  </si>
+  <si>
+    <t>Fathers Day</t>
+  </si>
+  <si>
+    <t>The earthly assemble embassy the heavenly kingdom</t>
+  </si>
+  <si>
+    <t>#104</t>
+  </si>
+  <si>
+    <t>#55</t>
+  </si>
+  <si>
+    <t>#13</t>
+  </si>
+  <si>
+    <t>#27</t>
+  </si>
+  <si>
+    <t>#8</t>
+  </si>
+  <si>
+    <t>#79</t>
+  </si>
+  <si>
+    <t>Xh Neejmais Led Sermon</t>
+  </si>
+  <si>
+    <t>Txl Tsavhaumxeeb Led Sermon</t>
+  </si>
+  <si>
+    <t>Txl Txawjsong Led Sermon</t>
+  </si>
+  <si>
+    <t>Xh Chongpao Thao Led Sermon</t>
+  </si>
+  <si>
+    <t>Txl Nplooj Led Sermon</t>
+  </si>
+  <si>
+    <t>Church Close - Flood</t>
+  </si>
+  <si>
+    <t>Gave Xh a rest - Just came back from Thailand (Unkown Topic)</t>
+  </si>
+  <si>
+    <t>Make Disciples/baptize &amp; Teaching</t>
+  </si>
+  <si>
+    <t>God is the owner of everything</t>
+  </si>
+  <si>
+    <t>#160</t>
+  </si>
+  <si>
+    <t>#1 - Vajtswv Thov Koj Foom Koobhmoov</t>
+  </si>
+  <si>
+    <t>Nws Lub Npe</t>
+  </si>
+  <si>
+    <t>Tus Ntseeg</t>
+  </si>
+  <si>
+    <t>Youth Lead (Vamyeejkoob &amp; Sheng not available)</t>
+  </si>
+  <si>
+    <t>Follow You</t>
+  </si>
+  <si>
+    <t>Anywhere</t>
+  </si>
+  <si>
+    <t>At Your Name</t>
+  </si>
+  <si>
+    <t>Abide</t>
+  </si>
+  <si>
+    <t>#4 - Koj Yog Vajtswv</t>
+  </si>
+  <si>
+    <t>#151 - Nimno Kuv Los Ntseeg Yexus</t>
+  </si>
+  <si>
+    <t>#145 - Tswv Yexus Lub Npe</t>
+  </si>
+  <si>
+    <t>#2 - Thaum Vajtswv Tseem Tsis Tau Tsis</t>
+  </si>
+  <si>
+    <t>#37 - Tswv Yexus, Koj Yog Tus Hlub Kuv</t>
+  </si>
+  <si>
+    <t>#120 - Peb Cov Ntseeg Txhua Leej Txhua Tus</t>
   </si>
 </sst>
 </file>
@@ -141,13 +453,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,10 +662,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C8" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
-    <sortCondition ref="A1:A8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C125" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="A1:C125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
+    <sortCondition ref="A1:A125"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="2"/>
@@ -624,17 +939,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -651,78 +965,1353 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45928</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>45662</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45928</v>
+        <v>45662</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45928</v>
+        <v>45662</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45934</v>
+        <v>45669</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45934</v>
+        <v>45669</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45934</v>
+        <v>45669</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <v>45676</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>45676</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45676</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>45683</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>45683</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45683</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>45690</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>45690</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>45690</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>45697</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45697</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>45697</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45704</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>45704</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>45704</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>45711</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45718</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45718</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45718</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>45725</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>45725</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>45725</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>45732</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>45732</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>45732</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>45739</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>45739</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>45739</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>45746</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>45746</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>45746</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>45753</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>45753</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>45753</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>45753</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>45760</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>45760</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>45760</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>45767</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>45767</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>45774</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>45774</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>45774</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>45781</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>45781</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>45781</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>45788</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>45788</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>45788</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>45795</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>45795</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>45795</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>45802</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>45802</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>45802</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>45802</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>45809</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>45809</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>45809</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>45816</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>45823</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>45823</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>45823</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>45830</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>45837</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>45837</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>45837</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>45844</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>45844</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>45844</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>45851</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>45851</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>45851</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>45858</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>45858</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>45858</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>45865</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>45865</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>45865</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>45865</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>45872</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>45872</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>45872</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>45886</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>45886</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>45886</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>45893</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>45893</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>45893</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>45900</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>45907</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>45907</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>45907</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>45914</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>45914</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>45914</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>45921</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>45921</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>45921</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>45921</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>45928</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>45928</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>45928</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>45934</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>45934</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A18974-A23C-42C1-9691-94A06ABFA1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE98831-5DEB-4D94-8510-CCE86879884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="1065" windowWidth="11715" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>#270 - Hnub No Peb Sawvdaws Tuaj Ua Kev Zoo Siab</t>
   </si>
   <si>
-    <t>#195 - Kuv Twv Xais Tag Lawm</t>
-  </si>
-  <si>
     <t>#23 - Kuv Muab Siab Npuab Yexus</t>
   </si>
   <si>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>#120 - Peb Cov Ntseeg Txhua Leej Txhua Tus</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C125" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:C125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
-    <sortCondition ref="A1:A125"/>
+    <sortCondition descending="1" ref="A1:A125"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="2"/>
@@ -942,7 +942,7 @@
   <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,662 +965,650 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>45934</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>45662</v>
+        <v>45934</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45662</v>
+        <v>45934</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>45669</v>
+        <v>45934</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>45669</v>
+        <v>45928</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>45669</v>
+        <v>45928</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>45676</v>
+        <v>45928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>45676</v>
+        <v>45921</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>45676</v>
+        <v>45921</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>45683</v>
+        <v>45921</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>45683</v>
+        <v>45921</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>45683</v>
+        <v>45914</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>45690</v>
+        <v>45914</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>45690</v>
+        <v>45914</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>45690</v>
+        <v>45907</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>45697</v>
+        <v>45907</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>45697</v>
+        <v>45907</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>45697</v>
+        <v>45900</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>45704</v>
+        <v>45900</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>45704</v>
+        <v>45900</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>45704</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>45893</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>45711</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>45893</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>45711</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>45893</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>45711</v>
+        <v>45886</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>45718</v>
+        <v>45886</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>45718</v>
+        <v>45886</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45718</v>
+        <v>45879</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45725</v>
+        <v>45879</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45725</v>
+        <v>45879</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45725</v>
+        <v>45872</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45732</v>
+        <v>45872</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45732</v>
+        <v>45872</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>45732</v>
+        <v>45865</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45739</v>
+        <v>45865</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45739</v>
+        <v>45865</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45739</v>
+        <v>45865</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45746</v>
+        <v>45858</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45746</v>
+        <v>45858</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45746</v>
+        <v>45858</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45753</v>
+        <v>45851</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45753</v>
+        <v>45851</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45753</v>
+        <v>45851</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45753</v>
+        <v>45844</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45760</v>
+        <v>45844</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45760</v>
+        <v>45844</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45760</v>
+        <v>45837</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45767</v>
+        <v>45837</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45767</v>
+        <v>45837</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45774</v>
+        <v>45830</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45774</v>
+        <v>45830</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45774</v>
+        <v>45830</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45781</v>
+        <v>45823</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45781</v>
+        <v>45823</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45781</v>
+        <v>45823</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45788</v>
+        <v>45816</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45788</v>
+        <v>45816</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45788</v>
+        <v>45816</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45795</v>
+        <v>45809</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45795</v>
+        <v>45809</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45795</v>
+        <v>45809</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,10 +1616,10 @@
         <v>45802</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,10 +1627,10 @@
         <v>45802</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1638,10 @@
         <v>45802</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,658 +1649,670 @@
         <v>45802</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>45809</v>
+        <v>45795</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45809</v>
+        <v>45795</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>45809</v>
+        <v>45795</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>45816</v>
+        <v>45788</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45816</v>
+        <v>45788</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>45816</v>
+        <v>45788</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>45823</v>
+        <v>45781</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>45823</v>
+        <v>45781</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45823</v>
+        <v>45781</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>45830</v>
+        <v>45774</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>45830</v>
+        <v>45774</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>45830</v>
+        <v>45774</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>45837</v>
+        <v>45767</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>45837</v>
+        <v>45767</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>45837</v>
+        <v>45760</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>45844</v>
+        <v>45760</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>45844</v>
+        <v>45760</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>45844</v>
+        <v>45753</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>45851</v>
+        <v>45753</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>45851</v>
+        <v>45753</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>45851</v>
+        <v>45753</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>45858</v>
+        <v>45746</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>45858</v>
+        <v>45746</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>45858</v>
+        <v>45746</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>45865</v>
+        <v>45739</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>45865</v>
+        <v>45739</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>45865</v>
+        <v>45739</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>45865</v>
+        <v>45732</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>45872</v>
+        <v>45732</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>45872</v>
+        <v>45732</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>45872</v>
+        <v>45725</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>45879</v>
+        <v>45725</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>45879</v>
+        <v>45725</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>45879</v>
+        <v>45718</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>45886</v>
+        <v>45718</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>45886</v>
+        <v>45718</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>45886</v>
+        <v>45711</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>45893</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>45711</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C103" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>45893</v>
-      </c>
-      <c r="B104" s="2"/>
+        <v>45711</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C104" s="2" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>45893</v>
-      </c>
-      <c r="B105" s="2"/>
+        <v>45704</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C105" s="2" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>45900</v>
+        <v>45704</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>45900</v>
+        <v>45704</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>45900</v>
+        <v>45697</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>45907</v>
+        <v>45697</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>45907</v>
+        <v>45697</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C110" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>45907</v>
+        <v>45690</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>45914</v>
+        <v>45690</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>45914</v>
+        <v>45690</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>45914</v>
+        <v>45683</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>45921</v>
+        <v>45683</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>45921</v>
+        <v>45683</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>45921</v>
+        <v>45676</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>45921</v>
+        <v>45676</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>45928</v>
+        <v>45676</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>45928</v>
+        <v>45669</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>45928</v>
+        <v>45669</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>45934</v>
+        <v>45669</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>45934</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>7</v>
+        <v>45662</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>45934</v>
+        <v>45662</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>45934</v>
+        <v>45662</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE98831-5DEB-4D94-8510-CCE86879884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A09F4-A042-4981-8DB6-B45F191922AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1065" windowWidth="11715" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="117">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -57,9 +57,6 @@
     <t>#270 - Hnub No Peb Sawvdaws Tuaj Ua Kev Zoo Siab</t>
   </si>
   <si>
-    <t>#23 - Kuv Muab Siab Npuab Yexus</t>
-  </si>
-  <si>
     <t>#152 - Yexus Coj Kuv Mus Kev Tshav Ntuj</t>
   </si>
   <si>
@@ -369,7 +366,16 @@
     <t>#120 - Peb Cov Ntseeg Txhua Leej Txhua Tus</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>#12 - Kuv Lub Siab Qhuas Tus Tswv Yexus</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Xh Thai's Hymnal Book</t>
+  </si>
+  <si>
+    <t>#95 - Kuv Twb Xais Tag Lawm</t>
   </si>
 </sst>
 </file>
@@ -467,7 +473,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -662,15 +704,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:C125" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:C125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C125">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D125" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D125">
     <sortCondition descending="1" ref="A1:A125"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="0"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -939,20 +982,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -960,1359 +1005,1488 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45934</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45934</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45934</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45934</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45928</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45928</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45921</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45921</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45921</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45921</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45914</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45914</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45914</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45907</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45907</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45907</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45900</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45900</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45900</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45893</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45893</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45893</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45886</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45886</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45886</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45879</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45879</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45879</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45872</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45872</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45872</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45865</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45865</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45865</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45865</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45858</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45858</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45858</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45851</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45851</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45851</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45844</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45844</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45844</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45837</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45837</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45837</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45830</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45830</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45830</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>45823</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>45823</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>45823</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>45816</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>45816</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>45816</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>45809</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>45809</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>45809</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>45802</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>45802</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>45802</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>45802</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>45795</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>45795</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C67" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>45795</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>45788</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>45788</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>45788</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>45781</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>45781</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>45781</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>45774</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>45774</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>45774</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>45767</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>45767</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>45760</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>45760</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>45760</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>45753</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>45753</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>45753</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>45753</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>45746</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>45746</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>45746</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>45739</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C90" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>45739</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>45739</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>45732</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>45732</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>45732</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>45725</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45725</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>45725</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>45718</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>45718</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>45718</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>45711</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>45711</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>45711</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>45704</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>45704</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>45704</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>45697</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>45697</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>45697</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>45690</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>45690</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>45690</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>45683</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>45683</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>45683</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>45676</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>45676</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>45676</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>45669</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>45669</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>45669</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>45662</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="6"/>
+      <c r="D123" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>45662</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>45662</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A09F4-A042-4981-8DB6-B45F191922AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB99C894-F273-4DF2-9F94-8E9653A406F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="120">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -75,42 +75,12 @@
     <t>God is our salvation</t>
   </si>
   <si>
-    <t>#240</t>
-  </si>
-  <si>
-    <t>#213</t>
-  </si>
-  <si>
-    <t>#6</t>
-  </si>
-  <si>
-    <t>#82</t>
-  </si>
-  <si>
-    <t>#29</t>
-  </si>
-  <si>
     <t>Holiness and Sin</t>
   </si>
   <si>
     <t>Death was the price</t>
   </si>
   <si>
-    <t>#283</t>
-  </si>
-  <si>
-    <t>#91</t>
-  </si>
-  <si>
-    <t>#348</t>
-  </si>
-  <si>
-    <t>#78</t>
-  </si>
-  <si>
-    <t>#162</t>
-  </si>
-  <si>
     <t>The beauty of the bride: LOVE</t>
   </si>
   <si>
@@ -123,123 +93,30 @@
     <t>The tongue is a fire</t>
   </si>
   <si>
-    <t>#60</t>
-  </si>
-  <si>
-    <t>#77</t>
-  </si>
-  <si>
-    <t>#30</t>
-  </si>
-  <si>
-    <t>#161</t>
-  </si>
-  <si>
-    <t>#3</t>
-  </si>
-  <si>
-    <t>#28</t>
-  </si>
-  <si>
-    <t>#99</t>
-  </si>
-  <si>
-    <t>#32</t>
-  </si>
-  <si>
     <t>Holiness is demand by the Lord in the church</t>
   </si>
   <si>
-    <t>#90</t>
-  </si>
-  <si>
-    <t>#21</t>
-  </si>
-  <si>
-    <t>#23</t>
-  </si>
-  <si>
-    <t>#11</t>
-  </si>
-  <si>
     <t>Seng Led Worship (Unknown Topic)</t>
   </si>
   <si>
     <t>Guest Speaker Week (Unknown Topic)</t>
   </si>
   <si>
-    <t>#97</t>
-  </si>
-  <si>
-    <t>#134</t>
-  </si>
-  <si>
-    <t>#31</t>
-  </si>
-  <si>
     <t>Repentance is God’s desires</t>
   </si>
   <si>
     <t>The power of unity</t>
   </si>
   <si>
-    <t>#89</t>
-  </si>
-  <si>
-    <t>#219</t>
-  </si>
-  <si>
-    <t>#62</t>
-  </si>
-  <si>
-    <t>#241</t>
-  </si>
-  <si>
-    <t>#224</t>
-  </si>
-  <si>
     <t>Easter Sunday</t>
   </si>
   <si>
-    <t>#59</t>
-  </si>
-  <si>
-    <t>#115</t>
-  </si>
-  <si>
-    <t>#112</t>
-  </si>
-  <si>
-    <t>#131</t>
-  </si>
-  <si>
-    <t>#56</t>
-  </si>
-  <si>
     <t>A woman worthy of praise</t>
   </si>
   <si>
-    <t>#74</t>
-  </si>
-  <si>
-    <t>#180</t>
-  </si>
-  <si>
-    <t>#183</t>
-  </si>
-  <si>
-    <t>#179</t>
-  </si>
-  <si>
     <t>The church: “Bride of Christ”</t>
   </si>
   <si>
-    <t>#10</t>
-  </si>
-  <si>
-    <t>#208</t>
-  </si>
-  <si>
     <t>Amazing Grace</t>
   </si>
   <si>
@@ -276,24 +153,6 @@
     <t>The earthly assemble embassy the heavenly kingdom</t>
   </si>
   <si>
-    <t>#104</t>
-  </si>
-  <si>
-    <t>#55</t>
-  </si>
-  <si>
-    <t>#13</t>
-  </si>
-  <si>
-    <t>#27</t>
-  </si>
-  <si>
-    <t>#8</t>
-  </si>
-  <si>
-    <t>#79</t>
-  </si>
-  <si>
     <t>Xh Neejmais Led Sermon</t>
   </si>
   <si>
@@ -309,9 +168,6 @@
     <t>Txl Nplooj Led Sermon</t>
   </si>
   <si>
-    <t>Church Close - Flood</t>
-  </si>
-  <si>
     <t>Gave Xh a rest - Just came back from Thailand (Unkown Topic)</t>
   </si>
   <si>
@@ -321,9 +177,6 @@
     <t>God is the owner of everything</t>
   </si>
   <si>
-    <t>#160</t>
-  </si>
-  <si>
     <t>#1 - Vajtswv Thov Koj Foom Koobhmoov</t>
   </si>
   <si>
@@ -376,6 +229,162 @@
   </si>
   <si>
     <t>#95 - Kuv Twb Xais Tag Lawm</t>
+  </si>
+  <si>
+    <t>#10 - Vajtswv Yog Peb Leejtxiv</t>
+  </si>
+  <si>
+    <t>#104 - Peb Yog Tswv Yexus Ib Pab Tubrog</t>
+  </si>
+  <si>
+    <t>HBNA Songbook</t>
+  </si>
+  <si>
+    <t>#11 - Vajtswv, Peb Yog Koj Cov Menyuam</t>
+  </si>
+  <si>
+    <t>#112 - Zoo Siab Kawg, Kuv Tus Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#115 - Yexus Yog Lub Chaw Ruaj Khov Kho</t>
+  </si>
+  <si>
+    <t>#134 - Cov Kwvtij Hmoob</t>
+  </si>
+  <si>
+    <t>#131 - Kuv Nyiam Hais Txog Vajtswv Txojlus</t>
+  </si>
+  <si>
+    <t>#13 - Txhua Haivneeg Nyob Hauv Lub Qab Ntuj</t>
+  </si>
+  <si>
+    <t>#160 - Ntiajteb Vajtswv Tsim Tseg</t>
+  </si>
+  <si>
+    <t>#161 - Thaum Vajtswv Tsim Neeg</t>
+  </si>
+  <si>
+    <t>#162 - Thaum Sawvdaws Tseem Ua Neej Nyob</t>
+  </si>
+  <si>
+    <t>#179 - Nyob Ceebtsheej Zoo Dua</t>
+  </si>
+  <si>
+    <t>#180 - Npaj Roj Rau Hauv Teeb</t>
+  </si>
+  <si>
+    <t>#183 - Thaum Txog Hnub Vajtswv Los</t>
+  </si>
+  <si>
+    <t>#27 - Kuv Twb Raug Kev Txomnyem Ntsuav</t>
+  </si>
+  <si>
+    <t>#23 - Kuv Muab Siab Npuab Yexus</t>
+  </si>
+  <si>
+    <t>#21 - Vajtswv, Koj Yeej Hlub Peb Kawg</t>
+  </si>
+  <si>
+    <t>#208 - Nws Nyob Chaw Siab</t>
+  </si>
+  <si>
+    <t>#241 - Haleluyas, Tswv Yexus Muaj Hwjchim</t>
+  </si>
+  <si>
+    <t>#240 - Tswv Yexus, Koj Tuag Txhiv Kuv</t>
+  </si>
+  <si>
+    <t>#224 - Vajtswv Tsa Yexus Sawv Los</t>
+  </si>
+  <si>
+    <t>#219 - Tus Tswv Yexus Zoo Yam Li Lub Kaus</t>
+  </si>
+  <si>
+    <t>#213 - Kuv Lub Txim Yexus Them Tag</t>
+  </si>
+  <si>
+    <t>#29 - Kuv Muab Kuv Lub Cev Rau Yexus</t>
+  </si>
+  <si>
+    <t>#32 - Vajtswv, Thov Koj Tshuaj Xyuas</t>
+  </si>
+  <si>
+    <t>#31 - Tswv Yexus Thov Koj Mloog Kuv Thov</t>
+  </si>
+  <si>
+    <t>#28 - Tswv Yexus, Kuv Hnov Koj Hu Kuv</t>
+  </si>
+  <si>
+    <t>#3 - Vajtswv Thiab Peb Tus Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#30 - Vajtswv, Kuv Txav Los Cuag Koj</t>
+  </si>
+  <si>
+    <t>#348 - Haleluyas Qhuas Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#283 - Vajtswv Ua Koj Tsaug</t>
+  </si>
+  <si>
+    <t>#8 - Vajtswv, Koj Muaj Hwjchim</t>
+  </si>
+  <si>
+    <t>#91 - Cov Kwvtij Hmoob</t>
+  </si>
+  <si>
+    <t>#59 - Txij Hnub Kuv Lees Yuav Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#62 - Peb Cov Ntseeg Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#78 - Vajtswv Phau Ntawv</t>
+  </si>
+  <si>
+    <t>#79 - Peb Sawvdaws Yuav Tsum Nyeem Vajtswv Lus</t>
+  </si>
+  <si>
+    <t>#77 - Tus Uas Sawm Zoo</t>
+  </si>
+  <si>
+    <t>#55 - Tus Tswv Yexus Yeej Yog Txojkev</t>
+  </si>
+  <si>
+    <t>#90 - Vajtswv Hu Peb Los Ua Nws Haivneeg</t>
+  </si>
+  <si>
+    <t>#89 - Kuv Yuav Tsa Cov Ntseeg Vajtswv</t>
+  </si>
+  <si>
+    <t>#6 - Vajtswv, Vajtswv, Vajtswv</t>
+  </si>
+  <si>
+    <t>#74 - Vajtswv Tus Ntsujplig Thov Koj</t>
+  </si>
+  <si>
+    <t>#56 - Thaum Tswv Yexus Txhiv Peb Lub Txim</t>
+  </si>
+  <si>
+    <t>#97 - Tus Tswv Yexus Hlub Peb Sawvdaws</t>
+  </si>
+  <si>
+    <t>#99 - Cov Uas Ntseeg Tswv Yexus Muaj Chaw Nyob</t>
+  </si>
+  <si>
+    <t>#60 - Thaum Peb Los Ntseeg Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#82 - Leejtwg Txhiv Tau Peb Lub Txim</t>
+  </si>
+  <si>
+    <t>Contemporary</t>
+  </si>
+  <si>
+    <t>English Hymn</t>
+  </si>
+  <si>
+    <t>Hmong Hymn</t>
   </si>
 </sst>
 </file>
@@ -704,16 +713,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D125" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D125">
-    <sortCondition descending="1" ref="A1:A125"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D122" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
+  <autoFilter ref="A1:D122" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
+    <sortCondition descending="1" ref="A1:A122"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -982,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1014,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
@@ -1018,7 +1027,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1041,9 @@
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1055,9 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1054,7 +1069,9 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1064,10 +1081,10 @@
         <v>45928</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -1078,9 +1095,11 @@
         <v>45928</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1090,9 +1109,11 @@
         <v>45928</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1102,11 +1123,13 @@
         <v>45921</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,11 +1137,13 @@
         <v>45921</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1126,11 +1151,13 @@
         <v>45921</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,11 +1165,13 @@
         <v>45921</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1150,11 +1179,13 @@
         <v>45914</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1162,11 +1193,13 @@
         <v>45914</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1174,11 +1207,13 @@
         <v>45914</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1186,9 +1221,11 @@
         <v>45907</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1196,9 +1233,11 @@
         <v>45907</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1206,9 +1245,11 @@
         <v>45907</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1216,11 +1257,13 @@
         <v>45900</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1228,11 +1271,13 @@
         <v>45900</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1240,11 +1285,13 @@
         <v>45900</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1252,9 +1299,11 @@
         <v>45893</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,9 +1311,11 @@
         <v>45893</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,9 +1323,11 @@
         <v>45893</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,11 +1335,13 @@
         <v>45886</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D25" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,11 +1349,13 @@
         <v>45886</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1306,83 +1363,97 @@
         <v>45886</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>45879</v>
+        <v>45872</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>45879</v>
+        <v>45872</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>45879</v>
+        <v>45872</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>45872</v>
+        <v>45865</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>45872</v>
+        <v>45865</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>45872</v>
+        <v>45865</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1390,335 +1461,391 @@
         <v>45865</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D34" s="2" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>45865</v>
+        <v>45858</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D35" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>45865</v>
+        <v>45858</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>45865</v>
+        <v>45858</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>45858</v>
+        <v>45851</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>45858</v>
+        <v>45851</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>45858</v>
+        <v>45851</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>45851</v>
+        <v>45844</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D41" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>45851</v>
+        <v>45844</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D42" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>45851</v>
+        <v>45844</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>45844</v>
+        <v>45837</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45844</v>
+        <v>45837</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>45844</v>
+        <v>45837</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>45837</v>
+        <v>45830</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>45837</v>
+        <v>45830</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>45837</v>
+        <v>45830</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>45830</v>
+        <v>45823</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D50" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>45830</v>
+        <v>45823</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>45830</v>
+        <v>45823</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>45823</v>
+        <v>45816</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>45823</v>
+        <v>45816</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>45823</v>
+        <v>45816</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>45816</v>
+        <v>45809</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>45816</v>
+        <v>45809</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>45816</v>
+        <v>45809</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>45809</v>
+        <v>45802</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>45809</v>
+        <v>45802</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>45809</v>
+        <v>45802</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1726,251 +1853,293 @@
         <v>45802</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D62" s="2" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>45802</v>
+        <v>45795</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D63" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>45802</v>
+        <v>45795</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D64" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>45802</v>
+        <v>45795</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D65" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>45795</v>
+        <v>45788</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D66" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>45795</v>
+        <v>45788</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D67" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>45795</v>
+        <v>45788</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D68" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>45788</v>
+        <v>45781</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>45788</v>
+        <v>45781</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>45788</v>
+        <v>45781</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>45781</v>
+        <v>45774</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D72" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>45781</v>
+        <v>45774</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D73" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>45781</v>
+        <v>45774</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>45774</v>
+        <v>45767</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>45774</v>
+        <v>45767</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D76" s="2" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>45774</v>
+        <v>45760</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>45767</v>
+        <v>45760</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>45767</v>
+        <v>45760</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D79" s="2" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>45760</v>
+        <v>45753</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D80" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>45760</v>
+        <v>45753</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D81" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>45760</v>
+        <v>45753</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D82" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1978,514 +2147,558 @@
         <v>45753</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D83" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>45753</v>
+        <v>45746</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D84" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>45753</v>
+        <v>45746</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>45753</v>
+        <v>45746</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D86" s="2" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>45746</v>
+        <v>45739</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D87" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>45746</v>
+        <v>45739</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D88" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>45746</v>
+        <v>45739</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D89" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>45739</v>
+        <v>45732</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C90" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D90" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>45739</v>
+        <v>45732</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D91" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>45739</v>
+        <v>45732</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D92" s="2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>45732</v>
+        <v>45725</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D93" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>45732</v>
+        <v>45725</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D94" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>45732</v>
+        <v>45725</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D95" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>45725</v>
+        <v>45718</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D96" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>45725</v>
+        <v>45718</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C97" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D97" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>45725</v>
+        <v>45718</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D98" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>45718</v>
+        <v>45711</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C99" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D99" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>45718</v>
+        <v>45711</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>45718</v>
+        <v>45711</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C101" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D101" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>45711</v>
+        <v>45704</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D102" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>45711</v>
+        <v>45704</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D103" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>45711</v>
+        <v>45704</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C104" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D104" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>45704</v>
+        <v>45697</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D105" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>45704</v>
+        <v>45697</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D106" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>45704</v>
+        <v>45697</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D107" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>45697</v>
+        <v>45690</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C108" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D108" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>45697</v>
+        <v>45690</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D109" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>45697</v>
+        <v>45690</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>45690</v>
+        <v>45683</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D111" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>45690</v>
+        <v>45683</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D112" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>45690</v>
+        <v>45683</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>45683</v>
+        <v>45676</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C114" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D114" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>45683</v>
+        <v>45676</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D115" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>45683</v>
+        <v>45676</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D116" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>45676</v>
+        <v>45669</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D117" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>45676</v>
+        <v>45669</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C118" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D118" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>45676</v>
+        <v>45669</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C119" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D119" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>45669</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C120" s="2"/>
+        <v>45662</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="D120" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>45669</v>
+        <v>45662</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C121" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D121" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>45669</v>
+        <v>45662</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C122" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C123" s="6"/>
-      <c r="D123" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>45662</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB99C894-F273-4DF2-9F94-8E9653A406F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBBF55-BCA4-48B5-8510-1E5DC5FAB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="125">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Topic</t>
   </si>
   <si>
-    <t>Koj Tsis Pab, Kuv Ua Tsis Tau Dabtsi [Without Him] (#148)</t>
-  </si>
-  <si>
     <t>Faithfulness</t>
   </si>
   <si>
@@ -385,13 +382,31 @@
   </si>
   <si>
     <t>Hmong Hymn</t>
+  </si>
+  <si>
+    <t>CCLI Number</t>
+  </si>
+  <si>
+    <t>Public - No reporting needed</t>
+  </si>
+  <si>
+    <t>#148 - Koj Tsis Pab, Kuv Ua Tsis Tau Dabtsi</t>
+  </si>
+  <si>
+    <t>#117 - Tsa Muag Ntsia Tej Liaj Teb</t>
+  </si>
+  <si>
+    <t>#101 - Tus ua Tuaj Tswv Yexus Tog</t>
+  </si>
+  <si>
+    <t>No record to report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,8 +427,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +452,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -478,11 +525,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -506,7 +610,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -515,8 +619,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -542,7 +644,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -551,8 +653,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -578,7 +678,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -587,8 +687,6 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -614,15 +712,47 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -713,16 +843,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:D122" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
-  <autoFilter ref="A1:D122" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D122">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E122" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:E122" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E122">
     <sortCondition descending="1" ref="A1:A122"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="0"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4A9686BC-7CD1-4D00-A11C-280AE7BFC506}" name="CCLI Number" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -991,22 +1122,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="47.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1014,1695 +1146,2057 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45934</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45934</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45934</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>117</v>
+      <c r="C4" s="2">
+        <v>4434612</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45934</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>117</v>
+      <c r="C5" s="2">
+        <v>6016351</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45928</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>66</v>
+      <c r="B6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6016351</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45928</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>70</v>
+      <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45928</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>67</v>
+      <c r="B8" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45921</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45921</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45921</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45921</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45914</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45914</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
+      <c r="B14" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45914</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45907</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>100</v>
+      <c r="B16" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45907</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6167640</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45907</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
+      <c r="B18" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45900</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>70</v>
+      <c r="B19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14181</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45900</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
+      <c r="B20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2">
+        <v>14181</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45900</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>70</v>
+      <c r="B21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7116364</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45893</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45893</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45893</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45886</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>70</v>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45886</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>93</v>
+      <c r="B26" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45886</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>101</v>
+      <c r="B27" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45872</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>102</v>
+      <c r="B28" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45872</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>103</v>
+      <c r="B29" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45872</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>74</v>
+      <c r="B30" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45865</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>70</v>
+      <c r="B31" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2">
+        <v>14181</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45865</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>72</v>
+      <c r="B32" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45865</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>95</v>
+      <c r="B33" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45865</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45858</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
+      <c r="B35" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45858</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>105</v>
+      <c r="B36" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45858</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
+      <c r="B37" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45851</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>70</v>
+      <c r="B38" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3608102</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45851</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>100</v>
+      <c r="B39" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45851</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>83</v>
+      <c r="B40" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45844</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>70</v>
+      <c r="B41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>14181</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45844</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>69</v>
+      <c r="B42" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45844</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>107</v>
+      <c r="B43" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45837</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>11</v>
+      <c r="B44" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45837</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
+      <c r="B45" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45837</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>35</v>
+      <c r="B46" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45830</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45830</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45830</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45823</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>68</v>
+      <c r="B50" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45823</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>71</v>
+      <c r="B51" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45823</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>86</v>
+      <c r="B52" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>45816</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>108</v>
+      <c r="B53" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>45816</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>109</v>
+      <c r="B54" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>45816</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>101</v>
+      <c r="B55" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>45809</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>34</v>
+      <c r="B56" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>45809</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>11</v>
+      <c r="B57" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>45809</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>35</v>
+      <c r="B58" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>45802</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>70</v>
+      <c r="B59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2">
+        <v>14181</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>45802</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>81</v>
+      <c r="B60" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>45802</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>82</v>
+      <c r="B61" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>45802</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>80</v>
+      <c r="B62" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>45795</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>110</v>
+      <c r="B63" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>45795</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>111</v>
+      <c r="B64" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>45795</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>70</v>
+      <c r="B65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="2">
+        <v>7116364</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>45788</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>70</v>
+      <c r="B66" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="2">
+        <v>14181</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>45788</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>70</v>
+      <c r="B67" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="2">
+        <v>14181</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>45788</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>112</v>
+      <c r="B68" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>45781</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>70</v>
+      <c r="B69" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="2">
+        <v>14181</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>45781</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>102</v>
+      <c r="B70" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>45781</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>95</v>
+      <c r="B71" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>45774</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>70</v>
+      <c r="B72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="2">
+        <v>14181</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>45774</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>102</v>
+      <c r="B73" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>45774</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>95</v>
+      <c r="B74" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>45767</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>87</v>
+      <c r="B75" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>45767</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>89</v>
+      <c r="B76" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>45760</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>109</v>
+      <c r="B77" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>45760</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>90</v>
+      <c r="B78" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>45760</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>103</v>
+      <c r="B79" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>45753</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>110</v>
+      <c r="B80" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>45753</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>113</v>
+      <c r="B81" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>45753</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>74</v>
+      <c r="B82" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>45753</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>94</v>
+      <c r="B83" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>45746</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>70</v>
+      <c r="B84" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C84" s="2">
+        <v>14181</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>45746</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>71</v>
+      <c r="B85" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>45746</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>70</v>
+      <c r="B86" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="2">
+        <v>14181</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>45739</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>108</v>
+      <c r="B87" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>45739</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>85</v>
+      <c r="B88" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>45739</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>84</v>
+      <c r="B89" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>45732</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>114</v>
+      <c r="B90" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>45732</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>70</v>
+      <c r="B91" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="2">
+        <v>14181</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>45732</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>93</v>
+      <c r="B92" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>45725</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>78</v>
+      <c r="B93" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>45725</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>96</v>
+      <c r="B94" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>45725</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>95</v>
+      <c r="B95" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>45718</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>115</v>
+      <c r="B96" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>45718</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>106</v>
+      <c r="B97" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>45718</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>97</v>
+      <c r="B98" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>45711</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>98</v>
+      <c r="B99" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>45711</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>104</v>
+      <c r="B100" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>45711</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>79</v>
+      <c r="B101" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>45704</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>99</v>
+      <c r="B102" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>45704</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>70</v>
+      <c r="B103" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" s="2">
+        <v>14181</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>45704</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>101</v>
+      <c r="B104" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>45697</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>75</v>
+      <c r="B105" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>45697</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>88</v>
+      <c r="B106" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>45697</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>91</v>
+      <c r="B107" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>45690</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>110</v>
+      <c r="B108" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>45690</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>116</v>
+      <c r="B109" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>45690</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>70</v>
+      <c r="B110" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110" s="2">
+        <v>7116364</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>45683</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>70</v>
+      <c r="B111" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>45683</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>73</v>
+      <c r="B112" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>45683</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>72</v>
+      <c r="B113" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>45676</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>61</v>
+      <c r="B114" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>45676</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>70</v>
+      <c r="B115" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="2">
+        <v>14181</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>45676</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>62</v>
+      <c r="B116" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>45669</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>70</v>
+      <c r="B117" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C117" s="2">
+        <v>14181</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>45669</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>59</v>
+      <c r="B118" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>45669</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>60</v>
+      <c r="B119" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>45662</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>9</v>
+      <c r="B120" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>45662</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>10</v>
+      <c r="B121" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>45662</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Public">
+      <formula>NOT(ISERROR(SEARCH("Public",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No record">
+      <formula>NOT(ISERROR(SEARCH("No record",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBBF55-BCA4-48B5-8510-1E5DC5FAB4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4481528B-6599-4003-B49D-72C75E8B577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="126">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>No record to report</t>
+  </si>
+  <si>
+    <t>#48 - Kuv ua Koj Tsaug, Tus Tswv Yexus</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -544,36 +547,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -843,17 +816,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E122" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:E122" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E125" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:E125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E122">
     <sortCondition descending="1" ref="A1:A122"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4A9686BC-7CD1-4D00-A11C-280AE7BFC506}" name="CCLI Number" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{2CA5B64A-445D-4399-935B-81E8A6462D93}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{01BFC753-3D22-41B6-96C2-FFC6C8FA50E0}" name="Song" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4A9686BC-7CD1-4D00-A11C-280AE7BFC506}" name="CCLI Number" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CCB0FDE9-C496-4C4B-9913-558476FEA7F3}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1179EA43-31D9-4A8B-9AA3-F0CAA32EB65F}" name="Topic" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,10 +1095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,13 +3162,64 @@
         <v>11</v>
       </c>
     </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>45935</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No record">
+      <formula>NOT(ISERROR(SEARCH("No record",C1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Public">
       <formula>NOT(ISERROR(SEARCH("Public",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No record">
-      <formula>NOT(ISERROR(SEARCH("No record",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Personal\Personal\HFBC P&amp;W\Data_Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4481528B-6599-4003-B49D-72C75E8B577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB611AA-4908-423C-8266-9317629B50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="127">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>#48 - Kuv ua Koj Tsaug, Tus Tswv Yexus</t>
+  </si>
+  <si>
+    <t>#130 - Kuv Tsis Txajmuag Qhia Yexus Zaj</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1101,8 @@
   <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,7 +3187,7 @@
         <v>45935</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>124</v>

--- a/setlist/setlist.xlsx
+++ b/setlist/setlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysaya\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB611AA-4908-423C-8266-9317629B50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E2370A8-2624-47B1-BB41-47E51AA8EB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="128">
   <si>
     <t>40th Year Anniversary</t>
   </si>
@@ -129,9 +129,6 @@
     <t>#171 - Kuv Taug Txojkev Mus Saum Ceebtsheej</t>
   </si>
   <si>
-    <t>#57 - Kuv Tus Kwvluag</t>
-  </si>
-  <si>
     <t>the temple/house of God</t>
   </si>
   <si>
@@ -406,6 +403,12 @@
   </si>
   <si>
     <t>#130 - Kuv Tsis Txajmuag Qhia Yexus Zaj</t>
+  </si>
+  <si>
+    <t>Faith Pleases God</t>
+  </si>
+  <si>
+    <t>#57 - Kuv Tus Kwvluag Yog Tswv Yexus</t>
   </si>
 </sst>
 </file>
@@ -819,8 +822,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E125" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:E125" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}" name="Table1" displayName="Table1" ref="A1:E128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:E128" xr:uid="{CC526445-8E3F-4132-AE91-79390C3881E9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E122">
     <sortCondition descending="1" ref="A1:A122"/>
   </sortState>
@@ -1098,11 +1101,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B125" sqref="B125"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
@@ -1140,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -1154,13 +1157,13 @@
         <v>45934</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
@@ -1177,7 +1180,7 @@
         <v>4434612</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
@@ -1194,7 +1197,7 @@
         <v>6016351</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>0</v>
@@ -1205,13 +1208,13 @@
         <v>45928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2">
         <v>6016351</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -1222,13 +1225,13 @@
         <v>45928</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <v>14181</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -1239,13 +1242,13 @@
         <v>45928</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -1256,11 +1259,11 @@
         <v>45921</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
@@ -1271,11 +1274,11 @@
         <v>45921</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
@@ -1286,11 +1289,11 @@
         <v>45921</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>32</v>
@@ -1301,11 +1304,11 @@
         <v>45921</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -1316,14 +1319,14 @@
         <v>45914</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1331,16 +1334,16 @@
         <v>45914</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,14 +1351,14 @@
         <v>45914</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1363,13 +1366,13 @@
         <v>45907</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1378,13 +1381,13 @@
         <v>45907</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2">
         <v>6167640</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -1393,13 +1396,13 @@
         <v>45907</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1408,16 +1411,16 @@
         <v>45900</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2">
         <v>14181</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1425,16 +1428,16 @@
         <v>45900</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2">
         <v>14181</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1442,16 +1445,16 @@
         <v>45900</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="2">
         <v>7116364</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1459,16 +1462,16 @@
         <v>45893</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,16 +1479,16 @@
         <v>45893</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1496,13 +1499,13 @@
         <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1510,16 +1513,16 @@
         <v>45886</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2">
         <v>14181</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1527,16 +1530,16 @@
         <v>45886</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1544,16 +1547,16 @@
         <v>45886</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,16 +1564,16 @@
         <v>45872</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,16 +1581,16 @@
         <v>45872</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,16 +1598,16 @@
         <v>45872</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1612,16 +1615,16 @@
         <v>45865</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2">
         <v>14181</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1629,16 +1632,16 @@
         <v>45865</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,16 +1649,16 @@
         <v>45865</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1666,13 +1669,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,16 +1683,16 @@
         <v>45858</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,16 +1700,16 @@
         <v>45858</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,16 +1717,16 @@
         <v>45858</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,16 +1734,16 @@
         <v>45851</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2">
         <v>3608102</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1748,16 +1751,16 @@
         <v>45851</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1765,16 +1768,16 @@
         <v>45851</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1782,13 +1785,13 @@
         <v>45844</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2">
         <v>14181</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>22</v>
@@ -1799,13 +1802,13 @@
         <v>45844</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>22</v>
@@ -1816,13 +1819,13 @@
         <v>45844</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>22</v>
@@ -1836,13 +1839,13 @@
         <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,13 +1856,13 @@
         <v>33</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1867,16 +1870,16 @@
         <v>45837</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,7 +1891,7 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>32</v>
@@ -1903,7 +1906,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>32</v>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>32</v>
@@ -1929,16 +1932,16 @@
         <v>45823</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,16 +1949,16 @@
         <v>45823</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,16 +1966,16 @@
         <v>45823</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1980,16 +1983,16 @@
         <v>45816</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1997,16 +2000,16 @@
         <v>45816</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2014,16 +2017,16 @@
         <v>45816</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,13 +2037,13 @@
         <v>33</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2051,13 +2054,13 @@
         <v>10</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2065,16 +2068,16 @@
         <v>45809</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2082,13 +2085,13 @@
         <v>45802</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="2">
         <v>14181</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>28</v>
@@ -2099,13 +2102,13 @@
         <v>45802</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>28</v>
@@ -2116,13 +2119,13 @@
         <v>45802</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>28</v>
@@ -2133,13 +2136,13 @@
         <v>45802</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>28</v>
@@ -2150,13 +2153,13 @@
         <v>45795</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>27</v>
@@ -2167,13 +2170,13 @@
         <v>45795</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>27</v>
@@ -2184,13 +2187,13 @@
         <v>45795</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2">
         <v>7116364</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>27</v>
@@ -2201,16 +2204,16 @@
         <v>45788</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2">
         <v>14181</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2218,16 +2221,16 @@
         <v>45788</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2">
         <v>14181</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2235,16 +2238,16 @@
         <v>45788</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,16 +2255,16 @@
         <v>45781</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2">
         <v>14181</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2269,16 +2272,16 @@
         <v>45781</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2286,16 +2289,16 @@
         <v>45781</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,16 +2306,16 @@
         <v>45774</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="2">
         <v>14181</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2320,16 +2323,16 @@
         <v>45774</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2337,16 +2340,16 @@
         <v>45774</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2354,13 +2357,13 @@
         <v>45767</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>26</v>
@@ -2371,13 +2374,13 @@
         <v>45767</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>26</v>
@@ -2388,13 +2391,13 @@
         <v>45760</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>25</v>
@@ -2405,13 +2408,13 @@
         <v>45760</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>25</v>
@@ -2422,13 +2425,13 @@
         <v>45760</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>25</v>
@@ -2439,13 +2442,13 @@
         <v>45753</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>24</v>
@@ -2456,13 +2459,13 @@
         <v>45753</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>24</v>
@@ -2473,13 +2476,13 @@
         <v>45753</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>24</v>
@@ -2490,13 +2493,13 @@
         <v>45753</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>24</v>
@@ -2507,13 +2510,13 @@
         <v>45746</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="2">
         <v>14181</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>23</v>
@@ -2524,13 +2527,13 @@
         <v>45746</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>23</v>
@@ -2541,13 +2544,13 @@
         <v>45746</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="2">
         <v>14181</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>23</v>
@@ -2558,13 +2561,13 @@
         <v>45739</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>21</v>
@@ -2575,13 +2578,13 @@
         <v>45739</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>21</v>
@@ -2592,13 +2595,13 @@
         <v>45739</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>21</v>
@@ -2609,13 +2612,13 @@
         <v>45732</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>22</v>
@@ -2626,13 +2629,13 @@
         <v>45732</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2">
         <v>14181</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>22</v>
@@ -2643,13 +2646,13 @@
         <v>45732</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>22</v>
@@ -2660,13 +2663,13 @@
         <v>45725</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>20</v>
@@ -2677,13 +2680,13 @@
         <v>45725</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>20</v>
@@ -2694,13 +2697,13 @@
         <v>45725</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>20</v>
@@ -2711,13 +2714,13 @@
         <v>45718</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>19</v>
@@ -2728,13 +2731,13 @@
         <v>45718</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>19</v>
@@ -2745,13 +2748,13 @@
         <v>45718</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>19</v>
@@ -2762,13 +2765,13 @@
         <v>45711</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>18</v>
@@ -2779,13 +2782,13 @@
         <v>45711</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>18</v>
@@ -2796,13 +2799,13 @@
         <v>45711</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>18</v>
@@ -2813,13 +2816,13 @@
         <v>45704</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>17</v>
@@ -2830,13 +2833,13 @@
         <v>45704</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" s="2">
         <v>14181</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>17</v>
@@ -2847,13 +2850,13 @@
         <v>45704</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>17</v>
@@ -2864,13 +2867,13 @@
         <v>45697</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>15</v>
@@ -2881,13 +2884,13 @@
         <v>45697</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>15</v>
@@ -2898,13 +2901,13 @@
         <v>45697</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>15</v>
@@ -2915,13 +2918,13 @@
         <v>45690</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>16</v>
@@ -2932,13 +2935,13 @@
         <v>45690</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>16</v>
@@ -2949,13 +2952,13 @@
         <v>45690</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C110" s="2">
         <v>7116364</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>16</v>
@@ -2966,13 +2969,13 @@
         <v>45683</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>14</v>
@@ -2983,13 +2986,13 @@
         <v>45683</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>14</v>
@@ -3000,13 +3003,13 @@
         <v>45683</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>14</v>
@@ -3017,13 +3020,13 @@
         <v>45676</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>13</v>
@@ -3034,13 +3037,13 @@
         <v>45676</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" s="2">
         <v>14181</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>13</v>
@@ -3051,13 +3054,13 @@
         <v>45676</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>13</v>
@@ -3068,13 +3071,13 @@
         <v>45669</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" s="2">
         <v>14181</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>12</v>
@@ -3085,13 +3088,13 @@
         <v>45669</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>12</v>
@@ -3102,13 +3105,13 @@
         <v>45669</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>12</v>
@@ -3122,10 +3125,10 @@
         <v>8</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>11</v>
@@ -3139,10 +3142,10 @@
         <v>9</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
@@ -3156,10 +3159,10 @@
         <v>10</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>11</v>
@@ -3170,13 +3173,13 @@
         <v>45935</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>23</v>
@@ -3187,13 +3190,13 @@
         <v>45935</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>23</v>
@@ -3204,16 +3207,65 @@
         <v>45935</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>45939</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
